--- a/lib/PHPExcel/templates/UBR.xlsx
+++ b/lib/PHPExcel/templates/UBR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>No. essai</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Hr Sup</t>
+  </si>
+  <si>
+    <t>Date :</t>
   </si>
 </sst>
 </file>
@@ -658,12 +661,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:H9"/>
+  <dimension ref="A4:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>14</v>
@@ -890,29 +898,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -1088,40 +1073,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1138,4 +1113,37 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>